--- a/Muestreo de Datos/Empleados-MuestreoDatos.xlsx
+++ b/Muestreo de Datos/Empleados-MuestreoDatos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isabe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077DBA04-C906-487E-97F5-FD4CE88E9BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12846B7A-4F49-4397-BFE1-415E027AA128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
   <si>
     <t>Nombre</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t xml:space="preserve">TipoSede </t>
-  </si>
-  <si>
-    <t>Propio</t>
   </si>
   <si>
     <t>Tienda</t>
@@ -466,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -510,13 +507,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -795,7 +791,7 @@
   </sheetPr>
   <dimension ref="S1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+    <sheetView zoomScale="73" workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
@@ -1817,8 +1813,8 @@
   </sheetPr>
   <dimension ref="A1:D998"/>
   <sheetViews>
-    <sheetView zoomScale="78" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1851,18 +1847,18 @@
         <v>12</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>5</v>
@@ -1873,16 +1869,16 @@
     </row>
     <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>44</v>
-      </c>
       <c r="D4" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2937,7 +2933,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -2948,10 +2944,10 @@
       <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>10</v>
       </c>
       <c r="H1" s="33"/>
@@ -2976,12 +2972,12 @@
       <c r="F2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="40" t="str">
+      <c r="G2" s="39" t="str">
         <f>B2&amp;"-"&amp;E2</f>
         <v>32425645-laup@gmail.com</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="35"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -2999,15 +2995,15 @@
       <c r="E3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="35" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="15" t="str">
         <f t="shared" ref="G3:G4" si="0">B3&amp;"-"&amp;E3</f>
         <v>54647577-josegiraldo@hotmail.com</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="35"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
@@ -3025,15 +3021,15 @@
       <c r="E4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="35" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>86975865-linalz@outlook.com</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="35"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36158,22 +36154,22 @@
         <v>6</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="G1" s="29" t="s">
         <v>48</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>49</v>
       </c>
       <c r="H1" s="32" t="s">
         <v>10</v>
@@ -36184,7 +36180,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>22</v>
@@ -36193,13 +36189,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="31" t="s">
-        <v>56</v>
-      </c>
       <c r="G2" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" s="30" t="str">
         <f>B2&amp;"-"&amp;C2</f>
@@ -36211,22 +36207,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="30" t="str">
         <f t="shared" ref="H3:H4" si="0">B3&amp;"-"&amp;C3</f>
@@ -36238,22 +36234,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="31" t="s">
-        <v>55</v>
-      </c>
       <c r="F4" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" s="30" t="str">
         <f t="shared" si="0"/>
